--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H2">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N2">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q2">
-        <v>213.7716721645498</v>
+        <v>185.4013170190027</v>
       </c>
       <c r="R2">
-        <v>1923.945049480948</v>
+        <v>1668.611853171024</v>
       </c>
       <c r="S2">
-        <v>0.0232307181204061</v>
+        <v>0.04194431927054549</v>
       </c>
       <c r="T2">
-        <v>0.0232307181204061</v>
+        <v>0.04194431927054549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H3">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P3">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q3">
-        <v>41.71080949993823</v>
+        <v>33.20361490207822</v>
       </c>
       <c r="R3">
-        <v>375.397285499444</v>
+        <v>298.832534118704</v>
       </c>
       <c r="S3">
-        <v>0.0045327430349198</v>
+        <v>0.007511829186446751</v>
       </c>
       <c r="T3">
-        <v>0.0045327430349198</v>
+        <v>0.007511829186446752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H4">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N4">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q4">
-        <v>154.4215994066431</v>
+        <v>27.10491377634177</v>
       </c>
       <c r="R4">
-        <v>1389.794394659788</v>
+        <v>243.944223987076</v>
       </c>
       <c r="S4">
-        <v>0.01678110392829163</v>
+        <v>0.006132087816393237</v>
       </c>
       <c r="T4">
-        <v>0.01678110392829163</v>
+        <v>0.006132087816393237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H5">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N5">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q5">
-        <v>10.03220475723556</v>
+        <v>5.381336403528</v>
       </c>
       <c r="R5">
-        <v>90.28984281512001</v>
+        <v>48.432027631752</v>
       </c>
       <c r="S5">
-        <v>0.001090206754158442</v>
+        <v>0.001217448159705644</v>
       </c>
       <c r="T5">
-        <v>0.001090206754158442</v>
+        <v>0.001217448159705644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H6">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N6">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q6">
-        <v>84.20694343948178</v>
+        <v>51.67328527577022</v>
       </c>
       <c r="R6">
-        <v>757.8624909553361</v>
+        <v>465.059567481932</v>
       </c>
       <c r="S6">
-        <v>0.009150827829600427</v>
+        <v>0.01169032027503201</v>
       </c>
       <c r="T6">
-        <v>0.009150827829600427</v>
+        <v>0.01169032027503201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N7">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q7">
-        <v>985.8476075525512</v>
+        <v>1074.077694304587</v>
       </c>
       <c r="R7">
-        <v>8872.62846797296</v>
+        <v>9666.699248741279</v>
       </c>
       <c r="S7">
-        <v>0.1071327536003057</v>
+        <v>0.2429942702438592</v>
       </c>
       <c r="T7">
-        <v>0.1071327536003057</v>
+        <v>0.2429942702438592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P8">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q8">
         <v>192.3571132612089</v>
@@ -948,10 +948,10 @@
         <v>1731.21401935088</v>
       </c>
       <c r="S8">
-        <v>0.02090358292742592</v>
+        <v>0.04351796579612036</v>
       </c>
       <c r="T8">
-        <v>0.02090358292742592</v>
+        <v>0.04351796579612036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N9">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q9">
-        <v>712.1437690410844</v>
+        <v>157.0257631461911</v>
       </c>
       <c r="R9">
-        <v>6409.29392136976</v>
+        <v>1413.23186831572</v>
       </c>
       <c r="S9">
-        <v>0.07738916476764353</v>
+        <v>0.03552476783339047</v>
       </c>
       <c r="T9">
-        <v>0.07738916476764353</v>
+        <v>0.03552476783339047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N10">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q10">
-        <v>46.26536789582222</v>
+        <v>31.17547107816</v>
       </c>
       <c r="R10">
-        <v>416.3883110624</v>
+        <v>280.57923970344</v>
       </c>
       <c r="S10">
-        <v>0.005027690102444569</v>
+        <v>0.007052991496160593</v>
       </c>
       <c r="T10">
-        <v>0.005027690102444569</v>
+        <v>0.007052991496160593</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N11">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q11">
-        <v>388.3358954371911</v>
+        <v>299.3566820264489</v>
       </c>
       <c r="R11">
-        <v>3495.023058934719</v>
+        <v>2694.21013823804</v>
       </c>
       <c r="S11">
-        <v>0.04220073516566199</v>
+        <v>0.06772504342782841</v>
       </c>
       <c r="T11">
-        <v>0.04220073516566199</v>
+        <v>0.06772504342782841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H12">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N12">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q12">
-        <v>1210.842543151523</v>
+        <v>803.6657052155907</v>
       </c>
       <c r="R12">
-        <v>10897.58288836371</v>
+        <v>7232.991346940315</v>
       </c>
       <c r="S12">
-        <v>0.1315831116598869</v>
+        <v>0.1818175375900691</v>
       </c>
       <c r="T12">
-        <v>0.1315831116598869</v>
+        <v>0.1818175375900691</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H13">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P13">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q13">
-        <v>236.2577891655249</v>
+        <v>143.9288944384929</v>
       </c>
       <c r="R13">
-        <v>2126.320102489724</v>
+        <v>1295.360049946436</v>
       </c>
       <c r="S13">
-        <v>0.02567430028628837</v>
+        <v>0.03256179404575656</v>
       </c>
       <c r="T13">
-        <v>0.02567430028628837</v>
+        <v>0.03256179404575656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H14">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N14">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q14">
-        <v>874.6726834748165</v>
+        <v>117.4926370271621</v>
       </c>
       <c r="R14">
-        <v>7872.054151273348</v>
+        <v>1057.433733244459</v>
       </c>
       <c r="S14">
-        <v>0.0950512963278969</v>
+        <v>0.02658097989077658</v>
       </c>
       <c r="T14">
-        <v>0.0950512963278969</v>
+        <v>0.02658097989077657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H15">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N15">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q15">
-        <v>56.82427516550223</v>
+        <v>23.326670949702</v>
       </c>
       <c r="R15">
-        <v>511.41847648952</v>
+        <v>209.940038547318</v>
       </c>
       <c r="S15">
-        <v>0.006175133989456088</v>
+        <v>0.005277315984400351</v>
       </c>
       <c r="T15">
-        <v>0.006175133989456088</v>
+        <v>0.005277315984400349</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H16">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N16">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q16">
-        <v>476.9638021392951</v>
+        <v>223.9900337261459</v>
       </c>
       <c r="R16">
-        <v>4292.674219253656</v>
+        <v>2015.910303535313</v>
       </c>
       <c r="S16">
-        <v>0.05183199218559777</v>
+        <v>0.0506744484833771</v>
       </c>
       <c r="T16">
-        <v>0.05183199218559777</v>
+        <v>0.05067444848337709</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H17">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N17">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q17">
-        <v>327.6641344692898</v>
+        <v>209.211920904664</v>
       </c>
       <c r="R17">
-        <v>2948.977210223608</v>
+        <v>1882.907288141976</v>
       </c>
       <c r="S17">
-        <v>0.03560749218523072</v>
+        <v>0.04733111795926412</v>
       </c>
       <c r="T17">
-        <v>0.03560749218523072</v>
+        <v>0.04733111795926412</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H18">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>32.525452</v>
       </c>
       <c r="O18">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P18">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q18">
-        <v>63.93333669715822</v>
+        <v>37.46786790047733</v>
       </c>
       <c r="R18">
-        <v>575.400030274424</v>
+        <v>337.210811104296</v>
       </c>
       <c r="S18">
-        <v>0.006947680711247178</v>
+        <v>0.008476553666785264</v>
       </c>
       <c r="T18">
-        <v>0.006947680711247179</v>
+        <v>0.008476553666785265</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H19">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N19">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q19">
-        <v>236.6937546055831</v>
+        <v>30.58592661735267</v>
       </c>
       <c r="R19">
-        <v>2130.243791450248</v>
+        <v>275.273339556174</v>
       </c>
       <c r="S19">
-        <v>0.02572167695760165</v>
+        <v>0.006919615738717889</v>
       </c>
       <c r="T19">
-        <v>0.02572167695760165</v>
+        <v>0.006919615738717889</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H20">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N20">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q20">
-        <v>15.37712483283556</v>
+        <v>6.072447294972</v>
       </c>
       <c r="R20">
-        <v>138.39412349552</v>
+        <v>54.65202565474799</v>
       </c>
       <c r="S20">
-        <v>0.001671042981873341</v>
+        <v>0.001373801827242468</v>
       </c>
       <c r="T20">
-        <v>0.001671042981873341</v>
+        <v>0.001373801827242468</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H21">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N21">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q21">
-        <v>129.0704000161618</v>
+        <v>58.30954949953533</v>
       </c>
       <c r="R21">
-        <v>1161.633600145456</v>
+        <v>524.7859454958179</v>
       </c>
       <c r="S21">
-        <v>0.01402617124197592</v>
+        <v>0.01319167738425239</v>
       </c>
       <c r="T21">
-        <v>0.01402617124197592</v>
+        <v>0.01319167738425239</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H22">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N22">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O22">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P22">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q22">
-        <v>1163.84232378772</v>
+        <v>434.3898043236627</v>
       </c>
       <c r="R22">
-        <v>10474.58091408948</v>
+        <v>3909.508238912964</v>
       </c>
       <c r="S22">
-        <v>0.1264755647310435</v>
+        <v>0.09827429995307972</v>
       </c>
       <c r="T22">
-        <v>0.1264755647310435</v>
+        <v>0.09827429995307972</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H23">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>32.525452</v>
       </c>
       <c r="O23">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P23">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q23">
-        <v>227.08717653716</v>
+        <v>77.79508803960489</v>
       </c>
       <c r="R23">
-        <v>2043.78458883444</v>
+        <v>700.1557923564441</v>
       </c>
       <c r="S23">
-        <v>0.0246777233553796</v>
+        <v>0.01759999369410594</v>
       </c>
       <c r="T23">
-        <v>0.02467772335537961</v>
+        <v>0.01759999369410594</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H24">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N24">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O24">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P24">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q24">
-        <v>840.72127647532</v>
+        <v>63.50601161214011</v>
       </c>
       <c r="R24">
-        <v>7566.49148827788</v>
+        <v>571.554104509261</v>
       </c>
       <c r="S24">
-        <v>0.09136177302571973</v>
+        <v>0.01436730045658499</v>
       </c>
       <c r="T24">
-        <v>0.09136177302571973</v>
+        <v>0.01436730045658499</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H25">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N25">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O25">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P25">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q25">
-        <v>54.6185768168</v>
+        <v>12.608312092458</v>
       </c>
       <c r="R25">
-        <v>491.5671913512</v>
+        <v>113.474808832122</v>
       </c>
       <c r="S25">
-        <v>0.005935439196977199</v>
+        <v>0.002852445043928862</v>
       </c>
       <c r="T25">
-        <v>0.005935439196977199</v>
+        <v>0.002852445043928862</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H26">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N26">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O26">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P26">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q26">
-        <v>458.4499140570399</v>
+        <v>121.0689796631919</v>
       </c>
       <c r="R26">
-        <v>4126.04922651336</v>
+        <v>1089.620816968727</v>
       </c>
       <c r="S26">
-        <v>0.04982007493296687</v>
+        <v>0.02739007477617657</v>
       </c>
       <c r="T26">
-        <v>0.04982007493296687</v>
+        <v>0.02739007477617657</v>
       </c>
     </row>
   </sheetData>
